--- a/natmiOut/OldD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H2">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I2">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J2">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>828.9510954717603</v>
+        <v>4.226529229787666</v>
       </c>
       <c r="R2">
-        <v>828.9510954717603</v>
+        <v>38.038763068089</v>
       </c>
       <c r="S2">
-        <v>0.03002468459484777</v>
+        <v>0.0001185226691920099</v>
       </c>
       <c r="T2">
-        <v>0.03002468459484777</v>
+        <v>0.0001247137591876484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H3">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I3">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J3">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>3693.262648482625</v>
+        <v>16.24933090675478</v>
       </c>
       <c r="R3">
-        <v>3693.262648482625</v>
+        <v>146.243978160793</v>
       </c>
       <c r="S3">
-        <v>0.133770311363803</v>
+        <v>0.0004556727203208184</v>
       </c>
       <c r="T3">
-        <v>0.133770311363803</v>
+        <v>0.0004794750092778219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H4">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I4">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J4">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>6325.574469916393</v>
+        <v>27.46185293659122</v>
       </c>
       <c r="R4">
-        <v>6325.574469916393</v>
+        <v>247.156676429321</v>
       </c>
       <c r="S4">
-        <v>0.2291128866080751</v>
+        <v>0.0007701004616420804</v>
       </c>
       <c r="T4">
-        <v>0.2291128866080751</v>
+        <v>0.0008103270385173016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H5">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I5">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J5">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>13802.34803347153</v>
+        <v>63.401631981509</v>
       </c>
       <c r="R5">
-        <v>13802.34803347153</v>
+        <v>570.614687833581</v>
       </c>
       <c r="S5">
-        <v>0.4999223098166683</v>
+        <v>0.001777943614021916</v>
       </c>
       <c r="T5">
-        <v>0.4999223098166683</v>
+        <v>0.001870815374307267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H6">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I6">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J6">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>2255.167785717401</v>
+        <v>13.65705761189533</v>
       </c>
       <c r="R6">
-        <v>2255.167785717401</v>
+        <v>81.942345671372</v>
       </c>
       <c r="S6">
-        <v>0.08168238373108332</v>
+        <v>0.0003829787595133256</v>
       </c>
       <c r="T6">
-        <v>0.08168238373108332</v>
+        <v>0.0002686558957513423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H7">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I7">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J7">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>21.68040563919323</v>
+        <v>1151.917240239022</v>
       </c>
       <c r="R7">
-        <v>21.68040563919323</v>
+        <v>10367.25516215119</v>
       </c>
       <c r="S7">
-        <v>0.0007852662777828626</v>
+        <v>0.0323027000592355</v>
       </c>
       <c r="T7">
-        <v>0.0007852662777828626</v>
+        <v>0.03399004750535868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H8">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I8">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J8">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>96.59367457089296</v>
+        <v>4428.66555421408</v>
       </c>
       <c r="R8">
-        <v>96.59367457089296</v>
+        <v>39857.98998792672</v>
       </c>
       <c r="S8">
-        <v>0.003498631739183495</v>
+        <v>0.1241910877475546</v>
       </c>
       <c r="T8">
-        <v>0.003498631739183495</v>
+        <v>0.1306782703780414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H9">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I9">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J9">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>165.439217292625</v>
+        <v>7484.576617528151</v>
       </c>
       <c r="R9">
-        <v>165.439217292625</v>
+        <v>67361.18955775336</v>
       </c>
       <c r="S9">
-        <v>0.005992223601565613</v>
+        <v>0.2098866351685228</v>
       </c>
       <c r="T9">
-        <v>0.005992223601565613</v>
+        <v>0.2208501669221399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H10">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I10">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J10">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>360.986921633398</v>
+        <v>17279.7652561033</v>
       </c>
       <c r="R10">
-        <v>360.986921633398</v>
+        <v>155517.8873049296</v>
       </c>
       <c r="S10">
-        <v>0.01307497936140557</v>
+        <v>0.4845687299949438</v>
       </c>
       <c r="T10">
-        <v>0.01307497936140557</v>
+        <v>0.5098804162480673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>54.63217833333334</v>
+      </c>
+      <c r="H11">
+        <v>163.896535</v>
+      </c>
+      <c r="I11">
+        <v>0.9553279024698591</v>
+      </c>
+      <c r="J11">
+        <v>0.9686195843099198</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>68.131198</v>
+      </c>
+      <c r="N11">
+        <v>136.262396</v>
+      </c>
+      <c r="O11">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P11">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q11">
+        <v>3722.155759199643</v>
+      </c>
+      <c r="R11">
+        <v>22332.93455519786</v>
+      </c>
+      <c r="S11">
+        <v>0.1043787494996023</v>
+      </c>
+      <c r="T11">
+        <v>0.07322068325631234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.3542035</v>
+      </c>
+      <c r="H12">
+        <v>4.708407</v>
+      </c>
+      <c r="I12">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J12">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.084959</v>
+      </c>
+      <c r="N12">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P12">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q12">
+        <v>49.6382842751565</v>
+      </c>
+      <c r="R12">
+        <v>297.829705650939</v>
+      </c>
+      <c r="S12">
+        <v>0.001391984208920019</v>
+      </c>
+      <c r="T12">
+        <v>0.0009764634597342974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.25728401077163</v>
-      </c>
-      <c r="H11">
-        <v>1.25728401077163</v>
-      </c>
-      <c r="I11">
-        <v>0.02548742388552257</v>
-      </c>
-      <c r="J11">
-        <v>0.02548742388552257</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q11">
-        <v>58.98170910911123</v>
-      </c>
-      <c r="R11">
-        <v>58.98170910911123</v>
-      </c>
-      <c r="S11">
-        <v>0.00213632290558503</v>
-      </c>
-      <c r="T11">
-        <v>0.00213632290558503</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.3542035</v>
+      </c>
+      <c r="H13">
+        <v>4.708407</v>
+      </c>
+      <c r="I13">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J13">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N13">
+        <v>243.189949</v>
+      </c>
+      <c r="O13">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P13">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q13">
+        <v>190.8395430335405</v>
+      </c>
+      <c r="R13">
+        <v>1145.037258201243</v>
+      </c>
+      <c r="S13">
+        <v>0.005351627966584534</v>
+      </c>
+      <c r="T13">
+        <v>0.003754115259336404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.3542035</v>
+      </c>
+      <c r="H14">
+        <v>4.708407</v>
+      </c>
+      <c r="I14">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J14">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N14">
+        <v>410.998253</v>
+      </c>
+      <c r="O14">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P14">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q14">
+        <v>322.5245085688285</v>
+      </c>
+      <c r="R14">
+        <v>1935.147051412971</v>
+      </c>
+      <c r="S14">
+        <v>0.009044410568843805</v>
+      </c>
+      <c r="T14">
+        <v>0.006344566539416906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.3542035</v>
+      </c>
+      <c r="H15">
+        <v>4.708407</v>
+      </c>
+      <c r="I15">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J15">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>316.292811</v>
+      </c>
+      <c r="N15">
+        <v>948.878433</v>
+      </c>
+      <c r="O15">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P15">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q15">
+        <v>744.6176426810384</v>
+      </c>
+      <c r="R15">
+        <v>4467.705856086232</v>
+      </c>
+      <c r="S15">
+        <v>0.02088097957918363</v>
+      </c>
+      <c r="T15">
+        <v>0.01464780522068581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.3542035</v>
+      </c>
+      <c r="H16">
+        <v>4.708407</v>
+      </c>
+      <c r="I16">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J16">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.131198</v>
+      </c>
+      <c r="N16">
+        <v>136.262396</v>
+      </c>
+      <c r="O16">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P16">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q16">
+        <v>160.394704790793</v>
+      </c>
+      <c r="R16">
+        <v>641.5788191631721</v>
+      </c>
+      <c r="S16">
+        <v>0.004497876981918873</v>
+      </c>
+      <c r="T16">
+        <v>0.002103478133865392</v>
       </c>
     </row>
   </sheetData>
